--- a/biology/Origine et évolution du vivant/Liste_des_espèces_animales_disparues_durant_la_période_historique/Liste_des_espèces_animales_disparues_durant_la_période_historique.xlsx
+++ b/biology/Origine et évolution du vivant/Liste_des_espèces_animales_disparues_durant_la_période_historique/Liste_des_espèces_animales_disparues_durant_la_période_historique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cette liste, ne sont pas considérés les animaux préhistoriques (dinosaures, etc.), mais uniquement les animaux des temps historiques (période de l'histoire allant de l'Antiquité à l'époque moderne). Sont aussi exclues les sous-espèces, la signification de leur disparition pouvant être très différente. 
 Beaucoup d'espèces éteintes durant cette partie de l'histoire ont été exterminées directement (par la chasse) ou indirectement (destruction de l'habitat naturel, importation ou introduction d'espèces étrangères, ou invasives) par l'homme.[réf. nécessaire]. Pour un classement chronologique, non par espèces, voir Chronologie des extinctions au cours de l'Holocène.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,23 +521,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mammifères</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cétacés
-Marsupiaux
-Chiroptères
-Insectivores
-Primates
-Lagomorphes
-Rongeurs
-Xénarthres
-Proboscidiens
-Artiodactyles
-Siréniens
-Carnivora</t>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir liste des espèces d'oiseaux disparues.
+</t>
         </is>
       </c>
     </row>
@@ -535,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,15 +554,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Oiseaux</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voir liste des espèces d'oiseaux disparues.
-</t>
-        </is>
-      </c>
+          <t>Amphibia</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,17 +582,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Reptiles</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Crocodiliens
-Tortues
-Lézards
-Serpents</t>
-        </is>
-      </c>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +595,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,10 +610,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Amphibia</t>
+          <t>Insectes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +638,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Poissons</t>
+          <t>Crustacés</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,65 +666,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Insectes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Crustacés</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Mollusca</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Gastéropoda
-Achatinellidae :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gastéropoda</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Achatinellidae :
 Achatinella abbreviata - Endémique de l'île Oahu, éteint ;
 Achatinella buddii - Endémique de l'île Oahu, éteint
 Achatinella caesia - Endémique de l'île Oahu, éteint
@@ -780,9 +733,43 @@
 Pleuroceridae :
 Athearnia crassa - États-Unis
 Streptaxidae :
-Gulella mayottensis - Endémique de Mayotte, éteint.
-Bivalvia
-Unionidae :
+Gulella mayottensis - Endémique de Mayotte, éteint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_animales_disparues_durant_la_période_historique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_animales_disparues_durant_la_p%C3%A9riode_historique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mollusca</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bivalvia</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Unionidae :
 Alasmidonta mccordi - Endémique des États-Unis, éteint ;
 Alasmidonta robusta - Endémique des États-Unis, éteint ;
 Alasmidonta wrightiana - Endémique des États-Unis, éteint ;
